--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\PROJECTS\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B7AE13-88E7-4ACE-B064-1CD027F57AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827EA636-052D-40B0-B610-E5A6659547E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D1FC2354-1431-294E-9D05-A71CF1B59C9B}"/>
   </bookViews>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Raw!$E$3:$E$259</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Raw!$H$3:$H$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1044,6 +1045,9 @@
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
@@ -11247,7 +11251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF77E48-6FD4-8644-A782-E6B1D9E27C39}">
   <dimension ref="B1:Q259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\PROJECTS\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827EA636-052D-40B0-B610-E5A6659547E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A58B6-D380-4FFE-8267-07AEA5120D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D1FC2354-1431-294E-9D05-A71CF1B59C9B}"/>
   </bookViews>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="62">
   <si>
     <t>Order ID</t>
   </si>
@@ -485,13 +485,13 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
     <t>Column3</t>
   </si>
   <si>
     <t>Price Summary</t>
+  </si>
+  <si>
+    <t>Column4</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,10 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{0CD8B2A8-DB45-4C19-8BF1-7AC1BB4A4279}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -10783,37 +10786,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F121931-2FED-47A5-AEE8-B59A4CE83A69}" name="Table2" displayName="Table2" ref="B2:N259" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="B2:N259" xr:uid="{8F121931-2FED-47A5-AEE8-B59A4CE83A69}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{162B2D57-14FB-4EFF-B60C-728F2DE1BD56}" name="Order ID" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{DA589A5F-FFB9-4BB3-8E20-3E93E20132F2}" name="Date" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F121931-2FED-47A5-AEE8-B59A4CE83A69}" name="Table2" displayName="Table2" ref="B2:O259" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="B2:O259" xr:uid="{8F121931-2FED-47A5-AEE8-B59A4CE83A69}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{162B2D57-14FB-4EFF-B60C-728F2DE1BD56}" name="Order ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DA589A5F-FFB9-4BB3-8E20-3E93E20132F2}" name="Date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{93523C2A-ABE8-45C9-85D2-0E03FF3521DD}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{4F492EDC-2A1E-4D73-90A4-2214065899E0}" name="Price" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{C6EE03AD-7482-44CB-A5A5-29F437292274}" name="Purchase Type" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{56DB8892-D427-4688-92E0-6C448BCA26E3}" name="Payment Method" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{CBB3CC98-D5D1-4896-A253-90C62757100D}" name="Manager2" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{8F36047F-9136-4661-8DF1-C8D37EA0A45C}" name="Quantity2" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4F492EDC-2A1E-4D73-90A4-2214065899E0}" name="Price" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{C6EE03AD-7482-44CB-A5A5-29F437292274}" name="Purchase Type" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{56DB8892-D427-4688-92E0-6C448BCA26E3}" name="Payment Method" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{CBB3CC98-D5D1-4896-A253-90C62757100D}" name="Manager2" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{8F36047F-9136-4661-8DF1-C8D37EA0A45C}" name="Quantity2" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{012B9223-9527-4FD8-B5B0-6EC0B8D3C7AB}" name="City"/>
     <tableColumn id="12" xr3:uid="{BB2A2A2C-B346-4621-832D-A92965D3E8D5}" name="Country/region"/>
-    <tableColumn id="5" xr3:uid="{FB3D295F-7498-42F6-997F-5CB136DBDBD3}" name="Column1"/>
-    <tableColumn id="8" xr3:uid="{7E145F01-93D1-41ED-AA9D-E5E041D41296}" name="Column2"/>
+    <tableColumn id="5" xr3:uid="{FB3D295F-7498-42F6-997F-5CB136DBDBD3}" name="Revenue" dataDxfId="0">
+      <calculatedColumnFormula>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7E145F01-93D1-41ED-AA9D-E5E041D41296}" name="Column1"/>
     <tableColumn id="13" xr3:uid="{07EB6757-FDB1-4C39-9A56-C69F32316D89}" name="Column3"/>
+    <tableColumn id="14" xr3:uid="{1A3318FE-D960-4DC0-8BFA-9DF79382120E}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD828420-2A6D-014A-88B1-2BABA3BA0542}" name="Table1" displayName="Table1" ref="B2:M256" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD828420-2A6D-014A-88B1-2BABA3BA0542}" name="Table1" displayName="Table1" ref="B2:M256" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B2:M256" xr:uid="{CD828420-2A6D-014A-88B1-2BABA3BA0542}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{10C0F244-483F-4A49-B3E1-49B616F196C1}" name="Order ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B235E101-74E6-5142-B134-5985F87CF2C6}" name="Date" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{10C0F244-483F-4A49-B3E1-49B616F196C1}" name="Order ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B235E101-74E6-5142-B134-5985F87CF2C6}" name="Date" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{088D2698-CC16-384A-AC92-4BBA913E871B}" name="Product"/>
-    <tableColumn id="4" xr3:uid="{774386CA-C236-0B40-B729-491CD51B3277}" name="Price" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{50AC1BB4-99E7-AC4F-A7F9-302247587674}" name="Quantity" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{428F1872-246B-6B47-9CB3-7AC4B776FA81}" name="Cost" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{774386CA-C236-0B40-B729-491CD51B3277}" name="Price" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{50AC1BB4-99E7-AC4F-A7F9-302247587674}" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{428F1872-246B-6B47-9CB3-7AC4B776FA81}" name="Cost" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{D3D9FF55-4E8A-6542-9CB4-C8C54AEAC563}" name="City"/>
     <tableColumn id="8" xr3:uid="{2CBC5079-34B9-BE47-87E8-44A931B18B57}" name="Country">
       <calculatedColumnFormula array="1">_FV(H3,"Country/region",TRUE)</calculatedColumnFormula>
@@ -10821,7 +10827,7 @@
     <tableColumn id="9" xr3:uid="{9660DC45-78EF-1046-A073-2C01E2E950C1}" name="Purchase Type"/>
     <tableColumn id="10" xr3:uid="{FF607F00-D587-D04B-B4E5-9CAE98EBB849}" name="Payment Method"/>
     <tableColumn id="11" xr3:uid="{ECABAB34-21FD-774F-9BE7-4AB677F2F35E}" name="Manager"/>
-    <tableColumn id="12" xr3:uid="{40E4C706-3A34-9640-9136-13AC17F916E2}" name="Revenue" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{40E4C706-3A34-9640-9136-13AC17F916E2}" name="Revenue" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Price]]*Table1[[#This Row],[Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11249,10 +11255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF77E48-6FD4-8644-A782-E6B1D9E27C39}">
-  <dimension ref="B1:Q259"/>
+  <dimension ref="B1:S259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11263,8 +11269,8 @@
     <col min="8" max="8" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
@@ -11296,16 +11302,19 @@
         <v>44</v>
       </c>
       <c r="L2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="N2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="O2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>10452</v>
       </c>
@@ -11336,11 +11345,12 @@
       <c r="K3" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L3">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>10453</v>
       </c>
@@ -11371,8 +11381,12 @@
       <c r="K4" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>10454</v>
       </c>
@@ -11403,18 +11417,16 @@
       <c r="K5" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="M5" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5">
-        <v>7.3410116731517689</v>
-      </c>
-      <c r="P5" s="48" t="s">
+      <c r="L5">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+      <c r="R5" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="48"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="S5" s="48"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>10455</v>
       </c>
@@ -11445,14 +11457,15 @@
       <c r="K6" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6">
-        <v>0.30396506095791431</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7404.3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>10456</v>
       </c>
@@ -11483,20 +11496,18 @@
       <c r="K7" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7">
-        <v>4.99</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="L7">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+      <c r="R7" t="s">
         <v>46</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>461.24124513618676</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>10457</v>
       </c>
@@ -11527,20 +11538,24 @@
       <c r="K8" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="M8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8">
-        <v>12.99</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="L8">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>7.3410116731517689</v>
+      </c>
+      <c r="R8" t="s">
         <v>47</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>13.380974475434584</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>10459</v>
       </c>
@@ -11571,20 +11586,24 @@
       <c r="K9" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9">
-        <v>4.8729306252776867</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="L9">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9">
+        <v>0.30396506095791431</v>
+      </c>
+      <c r="R9" t="s">
         <v>48</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>10460</v>
       </c>
@@ -11615,20 +11634,24 @@
       <c r="K10" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10">
-        <v>23.745452878769186</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="L10">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7209.45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10">
+        <v>4.99</v>
+      </c>
+      <c r="R10" t="s">
         <v>49</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>10461</v>
       </c>
@@ -11659,20 +11682,24 @@
       <c r="K11" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="M11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11">
-        <v>4.6742476071303694</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="L11">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11">
+        <v>12.99</v>
+      </c>
+      <c r="R11" t="s">
         <v>50</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>214.5133395000031</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>10462</v>
       </c>
@@ -11703,20 +11730,24 @@
       <c r="K12" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="M12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12">
-        <v>1.6233288756456574</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="L12">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+      <c r="N12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>4.8729306252776867</v>
+      </c>
+      <c r="R12" t="s">
         <v>51</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>46015.97282344359</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>10463</v>
       </c>
@@ -11747,20 +11778,24 @@
       <c r="K13" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="M13" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13">
-        <v>30.27</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="L13">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13">
+        <v>23.745452878769186</v>
+      </c>
+      <c r="R13" t="s">
         <v>52</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>-1.7242037395630254</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10464</v>
       </c>
@@ -11791,20 +11826,24 @@
       <c r="K14" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="M14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14">
-        <v>2.95</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="L14">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+      <c r="N14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14">
+        <v>4.6742476071303694</v>
+      </c>
+      <c r="R14" t="s">
         <v>53</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>-0.21424989618873261</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>10465</v>
       </c>
@@ -11835,20 +11874,24 @@
       <c r="K15" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="M15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15">
-        <v>33.22</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="L15">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7209.45</v>
+      </c>
+      <c r="N15" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15">
+        <v>1.6233288756456574</v>
+      </c>
+      <c r="R15" t="s">
         <v>54</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>554</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>10466</v>
       </c>
@@ -11879,20 +11922,24 @@
       <c r="K16" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="M16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16">
-        <v>1886.6400000000046</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="L16">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16">
+        <v>30.27</v>
+      </c>
+      <c r="R16" t="s">
         <v>55</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>10467</v>
       </c>
@@ -11923,20 +11970,24 @@
       <c r="K17" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="M17" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17">
-        <v>257</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="L17">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+      <c r="N17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17">
+        <v>2.95</v>
+      </c>
+      <c r="R17" t="s">
         <v>56</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>755</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>10468</v>
       </c>
@@ -11967,14 +12018,24 @@
       <c r="K18" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="P18" t="s">
+      <c r="L18">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18">
+        <v>33.22</v>
+      </c>
+      <c r="R18" t="s">
         <v>57</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>118539</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>10470</v>
       </c>
@@ -12005,14 +12066,24 @@
       <c r="K19" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="L19">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7209.45</v>
+      </c>
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19">
+        <v>1886.6400000000046</v>
+      </c>
+      <c r="R19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="S19" s="44">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>10471</v>
       </c>
@@ -12043,8 +12114,18 @@
       <c r="K20" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+      <c r="N20" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>10472</v>
       </c>
@@ -12075,8 +12156,12 @@
       <c r="K21" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L21">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>10473</v>
       </c>
@@ -12107,8 +12192,12 @@
       <c r="K22" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L22">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>10474</v>
       </c>
@@ -12139,8 +12228,12 @@
       <c r="K23" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>10475</v>
       </c>
@@ -12171,8 +12264,12 @@
       <c r="K24" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6806.76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>10476</v>
       </c>
@@ -12203,8 +12300,12 @@
       <c r="K25" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>10477</v>
       </c>
@@ -12235,8 +12336,12 @@
       <c r="K26" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>10478</v>
       </c>
@@ -12267,8 +12372,12 @@
       <c r="K27" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>10479</v>
       </c>
@@ -12299,8 +12408,12 @@
       <c r="K28" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>10480</v>
       </c>
@@ -12331,8 +12444,12 @@
       <c r="K29" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6611.91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>10481</v>
       </c>
@@ -12363,8 +12480,12 @@
       <c r="K30" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>10482</v>
       </c>
@@ -12395,8 +12516,12 @@
       <c r="K31" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>16090.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>10483</v>
       </c>
@@ -12427,8 +12552,12 @@
       <c r="K32" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>22523.16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>10484</v>
       </c>
@@ -12459,8 +12588,12 @@
       <c r="K33" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>4309.4400000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>10485</v>
       </c>
@@ -12491,8 +12624,12 @@
       <c r="K34" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>14666.759999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>10486</v>
       </c>
@@ -12523,8 +12660,12 @@
       <c r="K35" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>5868.1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>10487</v>
       </c>
@@ -12555,8 +12696,12 @@
       <c r="K36" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>10488</v>
       </c>
@@ -12587,8 +12732,12 @@
       <c r="K37" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>10489</v>
       </c>
@@ -12619,8 +12768,12 @@
       <c r="K38" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>10490</v>
       </c>
@@ -12651,8 +12804,12 @@
       <c r="K39" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6611.91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>10491</v>
       </c>
@@ -12683,8 +12840,12 @@
       <c r="K40" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>10492</v>
       </c>
@@ -12715,8 +12876,12 @@
       <c r="K41" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>10493</v>
       </c>
@@ -12747,8 +12912,12 @@
       <c r="K42" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>10494</v>
       </c>
@@ -12779,8 +12948,12 @@
       <c r="K43" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>10495</v>
       </c>
@@ -12811,8 +12984,12 @@
       <c r="K44" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6611.91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>10496</v>
       </c>
@@ -12843,8 +13020,12 @@
       <c r="K45" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>10497</v>
       </c>
@@ -12875,8 +13056,12 @@
       <c r="K46" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>10498</v>
       </c>
@@ -12907,8 +13092,12 @@
       <c r="K47" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L47">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>10499</v>
       </c>
@@ -12939,8 +13128,12 @@
       <c r="K48" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L48">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>10500</v>
       </c>
@@ -12971,8 +13164,12 @@
       <c r="K49" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L49">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6806.76</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>10501</v>
       </c>
@@ -13003,8 +13200,12 @@
       <c r="K50" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L50">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>10502</v>
       </c>
@@ -13035,8 +13236,12 @@
       <c r="K51" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L51">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>10503</v>
       </c>
@@ -13067,8 +13272,12 @@
       <c r="K52" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L52">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>10504</v>
       </c>
@@ -13099,8 +13308,12 @@
       <c r="K53" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L53">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>10505</v>
       </c>
@@ -13131,8 +13344,12 @@
       <c r="K54" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L54">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7001.61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>10506</v>
       </c>
@@ -13163,8 +13380,12 @@
       <c r="K55" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L55">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>10507</v>
       </c>
@@ -13195,8 +13416,12 @@
       <c r="K56" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L56">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2401.1200000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>10508</v>
       </c>
@@ -13227,8 +13452,12 @@
       <c r="K57" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L57">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>10509</v>
       </c>
@@ -13259,8 +13488,12 @@
       <c r="K58" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L58">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>10510</v>
       </c>
@@ -13291,8 +13524,12 @@
       <c r="K59" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L59">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6611.91</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>10511</v>
       </c>
@@ -13323,8 +13560,12 @@
       <c r="K60" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L60">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>10512</v>
       </c>
@@ -13355,8 +13596,12 @@
       <c r="K61" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L61">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2401.1200000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>10513</v>
       </c>
@@ -13387,8 +13632,12 @@
       <c r="K62" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L62">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>10514</v>
       </c>
@@ -13419,8 +13668,12 @@
       <c r="K63" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L63">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>10515</v>
       </c>
@@ -13451,8 +13704,12 @@
       <c r="K64" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L64">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6209.22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>10516</v>
       </c>
@@ -13483,8 +13740,12 @@
       <c r="K65" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L65">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>10483</v>
       </c>
@@ -13515,8 +13776,12 @@
       <c r="K66" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L66">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>10484</v>
       </c>
@@ -13547,8 +13812,12 @@
       <c r="K67" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L67">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>10485</v>
       </c>
@@ -13579,8 +13848,12 @@
       <c r="K68" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L68">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6806.76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>10520</v>
       </c>
@@ -13611,8 +13884,12 @@
       <c r="K69" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L69">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6404.07</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>10521</v>
       </c>
@@ -13643,8 +13920,12 @@
       <c r="K70" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L70">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>10522</v>
       </c>
@@ -13675,8 +13956,12 @@
       <c r="K71" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L71">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2401.1200000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>10523</v>
       </c>
@@ -13707,8 +13992,12 @@
       <c r="K72" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L72">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>10524</v>
       </c>
@@ -13739,8 +14028,12 @@
       <c r="K73" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L73">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>10525</v>
       </c>
@@ -13771,8 +14064,12 @@
       <c r="K74" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L74">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6001.38</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>10526</v>
       </c>
@@ -13803,8 +14100,12 @@
       <c r="K75" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L75">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>10527</v>
       </c>
@@ -13835,8 +14136,12 @@
       <c r="K76" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L76">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2401.1200000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>10528</v>
       </c>
@@ -13867,8 +14172,12 @@
       <c r="K77" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L77">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>10529</v>
       </c>
@@ -13899,8 +14208,12 @@
       <c r="K78" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L78">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>10530</v>
       </c>
@@ -13931,8 +14244,12 @@
       <c r="K79" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L79">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6209.22</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>10531</v>
       </c>
@@ -13963,8 +14280,12 @@
       <c r="K80" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L80">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>10532</v>
       </c>
@@ -13995,8 +14316,12 @@
       <c r="K81" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L81">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2401.1200000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>10533</v>
       </c>
@@ -14027,8 +14352,12 @@
       <c r="K82" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L82">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>10534</v>
       </c>
@@ -14059,8 +14388,12 @@
       <c r="K83" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L83">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>10535</v>
       </c>
@@ -14091,8 +14424,12 @@
       <c r="K84" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L84">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6209.22</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>10536</v>
       </c>
@@ -14123,8 +14460,12 @@
       <c r="K85" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L85">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>10537</v>
       </c>
@@ -14155,8 +14496,12 @@
       <c r="K86" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L86">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>10538</v>
       </c>
@@ -14187,8 +14532,12 @@
       <c r="K87" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L87">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>10539</v>
       </c>
@@ -14219,8 +14568,12 @@
       <c r="K88" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L88">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>10540</v>
       </c>
@@ -14251,8 +14604,12 @@
       <c r="K89" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L89">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6001.38</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>10541</v>
       </c>
@@ -14283,8 +14640,12 @@
       <c r="K90" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L90">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>10542</v>
       </c>
@@ -14315,8 +14676,12 @@
       <c r="K91" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L91">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>10543</v>
       </c>
@@ -14347,8 +14712,12 @@
       <c r="K92" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L92">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>10544</v>
       </c>
@@ -14379,8 +14748,12 @@
       <c r="K93" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L93">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>10545</v>
       </c>
@@ -14411,8 +14784,12 @@
       <c r="K94" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L94">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>5806.53</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>10546</v>
       </c>
@@ -14443,8 +14820,12 @@
       <c r="K95" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L95">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>10547</v>
       </c>
@@ -14475,8 +14856,12 @@
       <c r="K96" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L96">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>10548</v>
       </c>
@@ -14507,8 +14892,12 @@
       <c r="K97" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L97">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>10549</v>
       </c>
@@ -14539,8 +14928,12 @@
       <c r="K98" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L98">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>10550</v>
       </c>
@@ -14571,8 +14964,12 @@
       <c r="K99" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L99">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6001.38</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>10551</v>
       </c>
@@ -14603,8 +15000,12 @@
       <c r="K100" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L100">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>10552</v>
       </c>
@@ -14635,8 +15036,12 @@
       <c r="K101" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L101">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>10553</v>
       </c>
@@ -14667,8 +15072,12 @@
       <c r="K102" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L102">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>10554</v>
       </c>
@@ -14699,8 +15108,12 @@
       <c r="K103" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L103">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>10555</v>
       </c>
@@ -14731,8 +15144,12 @@
       <c r="K104" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L104">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6209.22</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>10556</v>
       </c>
@@ -14763,8 +15180,12 @@
       <c r="K105" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L105">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>10557</v>
       </c>
@@ -14795,8 +15216,12 @@
       <c r="K106" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L106">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>10558</v>
       </c>
@@ -14827,8 +15252,12 @@
       <c r="K107" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L107">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>10559</v>
       </c>
@@ -14859,8 +15288,12 @@
       <c r="K108" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L108">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>10560</v>
       </c>
@@ -14891,8 +15324,12 @@
       <c r="K109" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L109">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6209.22</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>10561</v>
       </c>
@@ -14923,8 +15360,12 @@
       <c r="K110" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L110">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>10562</v>
       </c>
@@ -14955,8 +15396,12 @@
       <c r="K111" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L111">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>10563</v>
       </c>
@@ -14987,8 +15432,12 @@
       <c r="K112" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L112">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>10564</v>
       </c>
@@ -15019,8 +15468,12 @@
       <c r="K113" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L113">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>10565</v>
       </c>
@@ -15051,8 +15504,12 @@
       <c r="K114" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L114">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6404.07</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>10566</v>
       </c>
@@ -15083,8 +15540,12 @@
       <c r="K115" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L115">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>10567</v>
       </c>
@@ -15115,8 +15576,12 @@
       <c r="K116" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L116">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>10568</v>
       </c>
@@ -15147,8 +15612,12 @@
       <c r="K117" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L117">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>10569</v>
       </c>
@@ -15179,8 +15648,12 @@
       <c r="K118" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L118">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>10570</v>
       </c>
@@ -15211,8 +15684,12 @@
       <c r="K119" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L119">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6404.07</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>10571</v>
       </c>
@@ -15243,8 +15720,12 @@
       <c r="K120" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L120">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>10572</v>
       </c>
@@ -15275,8 +15756,12 @@
       <c r="K121" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L121">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>10573</v>
       </c>
@@ -15307,8 +15792,12 @@
       <c r="K122" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L122">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>10574</v>
       </c>
@@ -15339,8 +15828,12 @@
       <c r="K123" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L123">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>10575</v>
       </c>
@@ -15371,8 +15864,12 @@
       <c r="K124" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L124">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6806.76</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>10576</v>
       </c>
@@ -15403,8 +15900,12 @@
       <c r="K125" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L125">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>10577</v>
       </c>
@@ -15435,8 +15936,12 @@
       <c r="K126" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L126">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>10578</v>
       </c>
@@ -15467,8 +15972,12 @@
       <c r="K127" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L127">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>10579</v>
       </c>
@@ -15499,8 +16008,12 @@
       <c r="K128" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L128">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>10580</v>
       </c>
@@ -15531,8 +16044,12 @@
       <c r="K129" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L129">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6806.76</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>10581</v>
       </c>
@@ -15563,8 +16080,12 @@
       <c r="K130" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L130">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>10582</v>
       </c>
@@ -15595,8 +16116,12 @@
       <c r="K131" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L131">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>10583</v>
       </c>
@@ -15627,8 +16152,12 @@
       <c r="K132" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L132">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>10584</v>
       </c>
@@ -15659,8 +16188,12 @@
       <c r="K133" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L133">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>10585</v>
       </c>
@@ -15691,8 +16224,12 @@
       <c r="K134" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L134">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7001.61</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>10586</v>
       </c>
@@ -15723,8 +16260,12 @@
       <c r="K135" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L135">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>10590</v>
       </c>
@@ -15755,8 +16296,12 @@
       <c r="K136" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L136">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7209.45</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>10591</v>
       </c>
@@ -15787,8 +16332,12 @@
       <c r="K137" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L137">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>10592</v>
       </c>
@@ -15819,8 +16368,12 @@
       <c r="K138" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L138">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>10593</v>
       </c>
@@ -15851,8 +16404,12 @@
       <c r="K139" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L139">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>10594</v>
       </c>
@@ -15883,8 +16440,12 @@
       <c r="K140" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L140">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>10595</v>
       </c>
@@ -15915,8 +16476,12 @@
       <c r="K141" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L141">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7001.61</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>10596</v>
       </c>
@@ -15947,8 +16512,12 @@
       <c r="K142" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L142">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>10597</v>
       </c>
@@ -15979,8 +16548,12 @@
       <c r="K143" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L143">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2003.2600000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>10598</v>
       </c>
@@ -16011,8 +16584,12 @@
       <c r="K144" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L144">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>10599</v>
       </c>
@@ -16043,8 +16620,12 @@
       <c r="K145" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L145">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>10600</v>
       </c>
@@ -16075,8 +16656,12 @@
       <c r="K146" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L146">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>6806.76</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>10601</v>
       </c>
@@ -16107,8 +16692,12 @@
       <c r="K147" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L147">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>10602</v>
       </c>
@@ -16139,8 +16728,12 @@
       <c r="K148" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L148">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>10603</v>
       </c>
@@ -16171,8 +16764,12 @@
       <c r="K149" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L149">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>10604</v>
       </c>
@@ -16203,8 +16800,12 @@
       <c r="K150" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L150">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>10605</v>
       </c>
@@ -16235,8 +16836,12 @@
       <c r="K151" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L151">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7001.61</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>10606</v>
       </c>
@@ -16267,8 +16872,12 @@
       <c r="K152" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L152">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>10607</v>
       </c>
@@ -16299,8 +16908,12 @@
       <c r="K153" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L153">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>10608</v>
       </c>
@@ -16331,8 +16944,12 @@
       <c r="K154" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L154">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>10609</v>
       </c>
@@ -16363,8 +16980,12 @@
       <c r="K155" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L155">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>10610</v>
       </c>
@@ -16395,8 +17016,12 @@
       <c r="K156" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L156">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7404.3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>10611</v>
       </c>
@@ -16427,8 +17052,12 @@
       <c r="K157" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L157">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>10612</v>
       </c>
@@ -16459,8 +17088,12 @@
       <c r="K158" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L158">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>10613</v>
       </c>
@@ -16491,8 +17124,12 @@
       <c r="K159" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L159">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>10614</v>
       </c>
@@ -16523,8 +17160,12 @@
       <c r="K160" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L160">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>10615</v>
       </c>
@@ -16555,8 +17196,12 @@
       <c r="K161" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L161">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7404.3</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>10616</v>
       </c>
@@ -16587,8 +17232,12 @@
       <c r="K162" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L162">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>10617</v>
       </c>
@@ -16619,8 +17268,12 @@
       <c r="K163" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L163">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>10618</v>
       </c>
@@ -16651,8 +17304,12 @@
       <c r="K164" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L164">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>10619</v>
       </c>
@@ -16683,8 +17340,12 @@
       <c r="K165" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L165">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>10620</v>
       </c>
@@ -16715,8 +17376,12 @@
       <c r="K166" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L166">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7612.14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>10621</v>
       </c>
@@ -16747,8 +17412,12 @@
       <c r="K167" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L167">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>10622</v>
       </c>
@@ -16779,8 +17448,12 @@
       <c r="K168" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L168">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>10623</v>
       </c>
@@ -16811,8 +17484,12 @@
       <c r="K169" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L169">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>10624</v>
       </c>
@@ -16843,8 +17520,12 @@
       <c r="K170" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L170">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>10625</v>
       </c>
@@ -16875,8 +17556,12 @@
       <c r="K171" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L171">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7404.3</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>10626</v>
       </c>
@@ -16907,8 +17592,12 @@
       <c r="K172" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L172">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>10627</v>
       </c>
@@ -16939,8 +17628,12 @@
       <c r="K173" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L173">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>10628</v>
       </c>
@@ -16971,8 +17664,12 @@
       <c r="K174" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L174">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>10629</v>
       </c>
@@ -17003,8 +17700,12 @@
       <c r="K175" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L175">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>10630</v>
       </c>
@@ -17035,8 +17736,12 @@
       <c r="K176" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L176">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7404.3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>10631</v>
       </c>
@@ -17067,8 +17772,12 @@
       <c r="K177" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L177">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2009.8999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>10632</v>
       </c>
@@ -17099,8 +17808,12 @@
       <c r="K178" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L178">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>10633</v>
       </c>
@@ -17131,8 +17844,12 @@
       <c r="K179" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L179">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>10634</v>
       </c>
@@ -17163,8 +17880,12 @@
       <c r="K180" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L180">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>10635</v>
       </c>
@@ -17195,8 +17916,12 @@
       <c r="K181" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L181">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7209.45</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>10636</v>
       </c>
@@ -17227,8 +17952,12 @@
       <c r="K182" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L182">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>10637</v>
       </c>
@@ -17259,8 +17988,12 @@
       <c r="K183" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L183">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>10638</v>
       </c>
@@ -17291,8 +18024,12 @@
       <c r="K184" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L184">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>10639</v>
       </c>
@@ -17323,8 +18060,12 @@
       <c r="K185" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L185">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>10640</v>
       </c>
@@ -17355,8 +18096,12 @@
       <c r="K186" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L186">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7001.61</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>10641</v>
       </c>
@@ -17387,8 +18132,12 @@
       <c r="K187" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L187">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>10642</v>
       </c>
@@ -17419,8 +18168,12 @@
       <c r="K188" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L188">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>10643</v>
       </c>
@@ -17451,8 +18204,12 @@
       <c r="K189" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L189">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>10644</v>
       </c>
@@ -17483,8 +18240,12 @@
       <c r="K190" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L190">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>10645</v>
       </c>
@@ -17515,8 +18276,12 @@
       <c r="K191" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L191">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7404.3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>10646</v>
       </c>
@@ -17547,8 +18312,12 @@
       <c r="K192" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L192">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>10647</v>
       </c>
@@ -17579,8 +18348,12 @@
       <c r="K193" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L193">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>10648</v>
       </c>
@@ -17611,8 +18384,12 @@
       <c r="K194" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L194">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>10649</v>
       </c>
@@ -17643,8 +18420,12 @@
       <c r="K195" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L195">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>10650</v>
       </c>
@@ -17675,8 +18456,12 @@
       <c r="K196" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L196">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7612.14</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>10651</v>
       </c>
@@ -17707,8 +18492,12 @@
       <c r="K197" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L197">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>10652</v>
       </c>
@@ -17739,8 +18528,12 @@
       <c r="K198" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L198">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2401.1200000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>10653</v>
       </c>
@@ -17771,8 +18564,12 @@
       <c r="K199" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L199">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>10654</v>
       </c>
@@ -17803,8 +18600,12 @@
       <c r="K200" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L200">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>10655</v>
       </c>
@@ -17835,8 +18636,12 @@
       <c r="K201" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L201">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>7806.99</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>10656</v>
       </c>
@@ -17867,8 +18672,12 @@
       <c r="K202" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L202">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>10657</v>
       </c>
@@ -17899,8 +18708,12 @@
       <c r="K203" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L203">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2401.1200000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>10658</v>
       </c>
@@ -17931,8 +18744,12 @@
       <c r="K204" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L204">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>10659</v>
       </c>
@@ -17963,8 +18780,12 @@
       <c r="K205" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L205">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>10660</v>
       </c>
@@ -17995,8 +18816,12 @@
       <c r="K206" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L206">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>8209.68</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>10661</v>
       </c>
@@ -18027,8 +18852,12 @@
       <c r="K207" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L207">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>10662</v>
       </c>
@@ -18059,8 +18888,12 @@
       <c r="K208" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L208">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>10663</v>
       </c>
@@ -18091,8 +18924,12 @@
       <c r="K209" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L209">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>10664</v>
       </c>
@@ -18123,8 +18960,12 @@
       <c r="K210" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L210">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>10665</v>
       </c>
@@ -18155,8 +18996,12 @@
       <c r="K211" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L211">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>8404.5300000000007</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>10666</v>
       </c>
@@ -18187,8 +19032,12 @@
       <c r="K212" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L212">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>10667</v>
       </c>
@@ -18219,8 +19068,12 @@
       <c r="K213" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L213">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>10668</v>
       </c>
@@ -18251,8 +19104,12 @@
       <c r="K214" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L214">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>10669</v>
       </c>
@@ -18283,8 +19140,12 @@
       <c r="K215" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L215">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>10670</v>
       </c>
@@ -18315,8 +19176,12 @@
       <c r="K216" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L216">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>8807.2199999999993</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>10671</v>
       </c>
@@ -18347,8 +19212,12 @@
       <c r="K217" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L217">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2208.8999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>10672</v>
       </c>
@@ -18379,8 +19248,12 @@
       <c r="K218" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L218">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>10673</v>
       </c>
@@ -18411,8 +19284,12 @@
       <c r="K219" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L219">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>10674</v>
       </c>
@@ -18443,8 +19320,12 @@
       <c r="K220" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L220">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>10675</v>
       </c>
@@ -18475,8 +19356,12 @@
       <c r="K221" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L221">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>8807.2199999999993</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>10676</v>
       </c>
@@ -18507,8 +19392,12 @@
       <c r="K222" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L222">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2407.8999999999996</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>10677</v>
       </c>
@@ -18539,8 +19428,12 @@
       <c r="K223" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L223">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>10678</v>
       </c>
@@ -18571,8 +19464,12 @@
       <c r="K224" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L224">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2200.7000000000003</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>10679</v>
       </c>
@@ -18603,8 +19500,12 @@
       <c r="K225" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L225">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>10680</v>
       </c>
@@ -18635,8 +19536,12 @@
       <c r="K226" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L226">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>8404.5300000000007</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>10681</v>
       </c>
@@ -18667,8 +19572,12 @@
       <c r="K227" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L227">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2407.8999999999996</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>10682</v>
       </c>
@@ -18699,8 +19608,12 @@
       <c r="K228" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L228">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>10683</v>
       </c>
@@ -18731,8 +19644,12 @@
       <c r="K229" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L229">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B230">
         <v>10684</v>
       </c>
@@ -18763,8 +19680,12 @@
       <c r="K230" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L230">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>10685</v>
       </c>
@@ -18795,8 +19716,12 @@
       <c r="K231" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L231">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>8807.2199999999993</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>10686</v>
       </c>
@@ -18827,8 +19752,12 @@
       <c r="K232" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L232">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2407.8999999999996</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>10687</v>
       </c>
@@ -18859,8 +19788,12 @@
       <c r="K233" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L233">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>10688</v>
       </c>
@@ -18891,8 +19824,12 @@
       <c r="K234" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L234">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>10689</v>
       </c>
@@ -18923,8 +19860,12 @@
       <c r="K235" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L235">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>10690</v>
       </c>
@@ -18955,8 +19896,12 @@
       <c r="K236" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L236">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>8807.2199999999993</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>10691</v>
       </c>
@@ -18987,8 +19932,12 @@
       <c r="K237" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L237">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2606.8999999999996</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>10692</v>
       </c>
@@ -19019,8 +19968,12 @@
       <c r="K238" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L238">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>10693</v>
       </c>
@@ -19051,8 +20004,12 @@
       <c r="K239" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L239">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>10694</v>
       </c>
@@ -19083,8 +20040,12 @@
       <c r="K240" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L240">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>10695</v>
       </c>
@@ -19115,8 +20076,12 @@
       <c r="K241" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L241">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>9002.07</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>10696</v>
       </c>
@@ -19147,8 +20112,12 @@
       <c r="K242" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L242">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2805.8999999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>10697</v>
       </c>
@@ -19179,8 +20148,12 @@
       <c r="K243" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L243">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>10698</v>
       </c>
@@ -19211,8 +20184,12 @@
       <c r="K244" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L244">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>10699</v>
       </c>
@@ -19243,8 +20220,12 @@
       <c r="K245" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L245">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>10700</v>
       </c>
@@ -19275,8 +20256,12 @@
       <c r="K246" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L246">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>9002.07</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>10701</v>
       </c>
@@ -19307,8 +20292,12 @@
       <c r="K247" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L247">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2805.8999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>10702</v>
       </c>
@@ -19339,8 +20328,12 @@
       <c r="K248" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L248">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>10703</v>
       </c>
@@ -19371,8 +20364,12 @@
       <c r="K249" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L249">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>10704</v>
       </c>
@@ -19403,8 +20400,12 @@
       <c r="K250" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L250">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>10705</v>
       </c>
@@ -19435,8 +20436,12 @@
       <c r="K251" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L251">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>9404.76</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>10706</v>
       </c>
@@ -19467,8 +20472,12 @@
       <c r="K252" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L252">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>3004.8999999999996</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>10707</v>
       </c>
@@ -19499,8 +20508,12 @@
       <c r="K253" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L253">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>10708</v>
       </c>
@@ -19531,8 +20544,12 @@
       <c r="K254" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L254">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>10709</v>
       </c>
@@ -19563,8 +20580,12 @@
       <c r="K255" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="L255">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>1002.99</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>10710</v>
       </c>
@@ -19594,6 +20615,10 @@
       </c>
       <c r="K256" t="e" vm="8">
         <v>#VALUE!</v>
+      </c>
+      <c r="L256">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>9807.4500000000007</v>
       </c>
     </row>
     <row r="257" spans="2:14" x14ac:dyDescent="0.35">
@@ -19627,6 +20652,10 @@
       <c r="K257" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
+      <c r="L257">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2805.8999999999996</v>
+      </c>
     </row>
     <row r="258" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B258">
@@ -19659,6 +20688,10 @@
       <c r="K258" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
+      <c r="L258">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2202.19</v>
+      </c>
     </row>
     <row r="259" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B259" s="44">
@@ -19691,7 +20724,10 @@
       <c r="K259" s="44" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="L259" s="44"/>
+      <c r="L259" s="44">
+        <f>(Table2[[#This Row],[Quantity2]]*Table2[[#This Row],[Price]])</f>
+        <v>2000.1000000000001</v>
+      </c>
       <c r="M259" s="44"/>
       <c r="N259" s="44"/>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\PROJECTS\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A482CACD-CD61-46E2-91F0-8C66B07846AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59E0FB5-3C0B-40A3-8791-C0D720C94821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{D1FC2354-1431-294E-9D05-A71CF1B59C9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{D1FC2354-1431-294E-9D05-A71CF1B59C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="5" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="70">
   <si>
     <t>Order ID</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Ans: 802325.28</t>
+  </si>
+  <si>
+    <t>Final Report</t>
   </si>
 </sst>
 </file>
@@ -45063,7 +45066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FE28F7-5705-AE4C-BFDA-27907EF068D8}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -45219,9 +45222,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750B8293-E880-CE4A-9EE3-6AAA7A8A1B8F}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -45229,6 +45234,11 @@
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>29</v>
